--- a/data/trans_orig/IP2003-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2179A8E-319B-4FAE-B5AB-AD56F748C68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB543CF-98F6-4C4D-82CA-BA5EC45D3DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B05A071-D0F5-4B7A-82E4-EEE1E55090CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{462C6153-8658-4463-B4BB-13E9D930C39A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
@@ -104,55 +104,55 @@
     <t>15,71%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
   </si>
   <si>
     <t>19,2%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
   </si>
   <si>
     <t>77,53%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>80,8%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,55 +161,55 @@
     <t>14,34%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -218,526 +218,514 @@
     <t>13,17%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>86,83%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
   </si>
   <si>
     <t>88,4%</t>
   </si>
   <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>14,25%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2015 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
   </si>
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
@@ -746,193 +734,193 @@
     <t>7,43%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
   </si>
   <si>
     <t>12,67%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
   </si>
   <si>
     <t>92,57%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>87,33%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>85,31%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>14,6%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>16,59%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>92,03%</t>
   </si>
   <si>
     <t>85,4%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>83,41%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>10,98%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>89,02%</t>
   </si>
   <si>
     <t>85,42%</t>
   </si>
   <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
 </sst>
 </file>
@@ -1344,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAC1F93-C1DA-4F9D-AE1B-22DC5349B67D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8DFD24-1536-4B33-B553-BC9C6A956092}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2245,7 +2233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7145793B-A098-4079-AA95-05873F1DF672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B667E38-51FF-4C7D-9DDE-BF32BAD1D3F1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3016,10 +3004,10 @@
         <v>156</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3022,13 @@
         <v>610643</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>796</v>
@@ -3049,13 +3037,13 @@
         <v>551660</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>1664</v>
@@ -3064,13 +3052,13 @@
         <v>1162303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,7 +3134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E765883B-45C3-4830-8470-4AB6C3A041D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4FE56A-9874-4C3F-A8BB-918D0412E7E7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3163,7 +3151,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3407,13 +3395,13 @@
         <v>12553</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3422,13 +3410,13 @@
         <v>5055</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>25</v>
@@ -3440,10 +3428,10 @@
         <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3446,13 @@
         <v>54821</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>77</v>
@@ -3473,13 +3461,13 @@
         <v>51210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>156</v>
@@ -3491,10 +3479,10 @@
         <v>85</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3550,13 @@
         <v>59595</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="H10" s="7">
         <v>96</v>
@@ -3577,13 +3565,13 @@
         <v>66095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -3592,13 +3580,13 @@
         <v>125690</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3601,13 @@
         <v>404188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>566</v>
@@ -3628,13 +3616,13 @@
         <v>374270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1143</v>
@@ -3643,13 +3631,13 @@
         <v>778458</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3705,13 @@
         <v>18753</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -3732,13 +3720,13 @@
         <v>17805</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -3747,13 +3735,13 @@
         <v>36559</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3756,13 @@
         <v>150985</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -3783,13 +3771,13 @@
         <v>144120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>435</v>
@@ -3798,13 +3786,13 @@
         <v>295104</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3860,13 @@
         <v>90901</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -3887,13 +3875,13 @@
         <v>88955</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
@@ -3902,13 +3890,13 @@
         <v>179856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3911,13 @@
         <v>609994</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>860</v>
@@ -3938,13 +3926,13 @@
         <v>569599</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>1734</v>
@@ -3953,13 +3941,13 @@
         <v>1179593</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E564BC2-1D14-4CED-80A7-0DB2D8C261C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F47E56-2E36-4A1E-BA3D-74FC7442F5D4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4052,7 +4040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4308,13 +4296,13 @@
         <v>4226</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -4323,13 +4311,13 @@
         <v>6356</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -4338,13 +4326,13 @@
         <v>10581</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4347,13 @@
         <v>52636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -4374,13 +4362,13 @@
         <v>43798</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>134</v>
@@ -4389,13 +4377,13 @@
         <v>96435</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,13 +4451,13 @@
         <v>70143</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>82</v>
@@ -4478,13 +4466,13 @@
         <v>65669</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>161</v>
@@ -4493,13 +4481,13 @@
         <v>135812</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,13 +4502,13 @@
         <v>411496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H11" s="7">
         <v>546</v>
@@ -4529,13 +4517,13 @@
         <v>377231</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>1098</v>
@@ -4544,13 +4532,13 @@
         <v>788727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4606,13 @@
         <v>20231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4633,13 +4621,13 @@
         <v>21799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4648,13 +4636,13 @@
         <v>42030</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,13 +4657,13 @@
         <v>153131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
@@ -4684,13 +4672,13 @@
         <v>127556</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>405</v>
@@ -4699,13 +4687,13 @@
         <v>280686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4761,13 @@
         <v>94600</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -4788,13 +4776,13 @@
         <v>93824</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -4803,13 +4791,13 @@
         <v>188424</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,13 +4812,13 @@
         <v>617263</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>801</v>
@@ -4839,13 +4827,13 @@
         <v>549756</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>1638</v>
@@ -4854,13 +4842,13 @@
         <v>1167018</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP2003-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP2003-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB543CF-98F6-4C4D-82CA-BA5EC45D3DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96DA47DC-A246-41CE-934E-F512A03358A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{462C6153-8658-4463-B4BB-13E9D930C39A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3066FFD8-BB9E-4F0B-B4E2-3F7F7250BE79}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Menores según si tienen dientes o muelas empastados en 2007 (Tasa respuesta: 94,72%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,859 +68,862 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
     <t>14,34%</t>
   </si>
   <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2016 (Tasa respuesta: 93,51%)</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>12,14%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>87,86%</t>
   </si>
   <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2012 (Tasa respuesta: 93,28%)</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2016 (Tasa respuesta: 93,51%)</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>Menores según si tienen dientes o muelas empastados en 2023 (Tasa respuesta: 97,24%)</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>78,37%</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8DFD24-1536-4B33-B553-BC9C6A956092}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5E5A8E-EB7E-4CD0-BF67-BB3CFBDC9920}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1450,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>19822</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1465,81 +1468,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12989</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>32811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>68392</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I5" s="7">
+        <v>69703</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>138094</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1548,151 +1555,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>88214</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="I6" s="7">
+        <v>82692</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>170905</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="D7" s="7">
-        <v>12989</v>
+        <v>76934</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="I7" s="7">
-        <v>19822</v>
+        <v>65224</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c r="N7" s="7">
-        <v>32811</v>
+        <v>142158</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>105</v>
+        <v>479</v>
       </c>
       <c r="D8" s="7">
-        <v>69703</v>
+        <v>317382</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>102</v>
+        <v>588</v>
       </c>
       <c r="I8" s="7">
-        <v>68392</v>
+        <v>389544</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>207</v>
+        <v>1067</v>
       </c>
       <c r="N8" s="7">
-        <v>138094</v>
+        <v>706926</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,153 +1710,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>124</v>
+        <v>594</v>
       </c>
       <c r="D9" s="7">
-        <v>82692</v>
+        <v>394316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>132</v>
+        <v>686</v>
       </c>
       <c r="I9" s="7">
-        <v>88214</v>
+        <v>454768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>256</v>
+        <v>1280</v>
       </c>
       <c r="N9" s="7">
-        <v>170905</v>
+        <v>849084</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>65224</v>
+        <v>16549</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>28</v>
+      </c>
+      <c r="I10" s="7">
+        <v>19322</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
+        <v>52</v>
+      </c>
+      <c r="N10" s="7">
+        <v>35871</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="7">
-        <v>115</v>
-      </c>
-      <c r="I10" s="7">
-        <v>76934</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="7">
-        <v>213</v>
-      </c>
-      <c r="N10" s="7">
-        <v>142158</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>588</v>
+        <v>213</v>
       </c>
       <c r="D11" s="7">
-        <v>389544</v>
+        <v>145962</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
+        <v>191</v>
+      </c>
+      <c r="I11" s="7">
+        <v>127381</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7">
+        <v>404</v>
+      </c>
+      <c r="N11" s="7">
+        <v>273343</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="7">
-        <v>479</v>
-      </c>
-      <c r="I11" s="7">
-        <v>317382</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N11" s="7">
-        <v>706926</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1856,153 +1865,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>686</v>
+        <v>237</v>
       </c>
       <c r="D12" s="7">
-        <v>454768</v>
+        <v>162511</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>594</v>
+        <v>219</v>
       </c>
       <c r="I12" s="7">
-        <v>394316</v>
+        <v>146703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1280</v>
+        <v>456</v>
       </c>
       <c r="N12" s="7">
-        <v>849084</v>
+        <v>309214</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="D13" s="7">
-        <v>19322</v>
+        <v>113305</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="I13" s="7">
-        <v>16549</v>
+        <v>97535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>314</v>
       </c>
       <c r="N13" s="7">
-        <v>35871</v>
+        <v>210840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>191</v>
+        <v>794</v>
       </c>
       <c r="D14" s="7">
-        <v>127381</v>
+        <v>531735</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>884</v>
       </c>
       <c r="I14" s="7">
-        <v>145962</v>
+        <v>586628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>404</v>
+        <v>1678</v>
       </c>
       <c r="N14" s="7">
-        <v>273343</v>
+        <v>1118363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,216 +2020,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>219</v>
+        <v>963</v>
       </c>
       <c r="D15" s="7">
-        <v>146703</v>
+        <v>645040</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>237</v>
+        <v>1029</v>
       </c>
       <c r="I15" s="7">
-        <v>162511</v>
+        <v>684163</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>456</v>
+        <v>1992</v>
       </c>
       <c r="N15" s="7">
-        <v>309214</v>
+        <v>1329203</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>145</v>
-      </c>
-      <c r="D16" s="7">
-        <v>97535</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>169</v>
-      </c>
-      <c r="I16" s="7">
-        <v>113305</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>314</v>
-      </c>
-      <c r="N16" s="7">
-        <v>210840</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>885</v>
-      </c>
-      <c r="D17" s="7">
-        <v>587355</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="7">
-        <v>794</v>
-      </c>
-      <c r="I17" s="7">
-        <v>531735</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1679</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1119090</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1030</v>
-      </c>
-      <c r="D18" s="7">
-        <v>684890</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>963</v>
-      </c>
-      <c r="I18" s="7">
-        <v>645040</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1993</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1329930</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2233,8 +2086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B667E38-51FF-4C7D-9DDE-BF32BAD1D3F1}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683D7696-7129-42A6-A384-580DAC133DB8}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2250,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2351,96 +2204,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>18215</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>15950</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>34166</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>70544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="I5" s="7">
+        <v>66675</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>137218</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,151 +2306,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>88759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="I6" s="7">
+        <v>82625</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>171384</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D7" s="7">
-        <v>15950</v>
+        <v>69814</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="7">
         <v>96</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="7">
-        <v>26</v>
-      </c>
       <c r="I7" s="7">
-        <v>18215</v>
+        <v>65513</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="N7" s="7">
-        <v>34166</v>
+        <v>135327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>92</v>
+        <v>506</v>
       </c>
       <c r="D8" s="7">
-        <v>66675</v>
+        <v>349226</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>103</v>
+        <v>570</v>
       </c>
       <c r="I8" s="7">
-        <v>70544</v>
+        <v>398638</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>195</v>
+        <v>1076</v>
       </c>
       <c r="N8" s="7">
-        <v>137218</v>
+        <v>747863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,153 +2461,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>116</v>
+        <v>606</v>
       </c>
       <c r="D9" s="7">
-        <v>82625</v>
+        <v>419040</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>129</v>
+        <v>666</v>
       </c>
       <c r="I9" s="7">
-        <v>88759</v>
+        <v>464151</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>245</v>
+        <v>1272</v>
       </c>
       <c r="N9" s="7">
-        <v>171384</v>
+        <v>883190</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>65513</v>
+        <v>23202</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>69814</v>
+        <v>11333</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>135327</v>
+        <v>34535</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>570</v>
+        <v>187</v>
       </c>
       <c r="D11" s="7">
-        <v>398638</v>
+        <v>131891</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>506</v>
+        <v>205</v>
       </c>
       <c r="I11" s="7">
-        <v>349226</v>
+        <v>144689</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>1076</v>
+        <v>392</v>
       </c>
       <c r="N11" s="7">
-        <v>747863</v>
+        <v>276581</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,153 +2616,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>666</v>
+        <v>219</v>
       </c>
       <c r="D12" s="7">
-        <v>464151</v>
+        <v>155093</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>606</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>419040</v>
+        <v>156022</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1272</v>
+        <v>440</v>
       </c>
       <c r="N12" s="7">
-        <v>883190</v>
+        <v>311116</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="D13" s="7">
-        <v>11333</v>
+        <v>111231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="I13" s="7">
-        <v>23202</v>
+        <v>92797</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="N13" s="7">
-        <v>34535</v>
+        <v>204028</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>796</v>
       </c>
       <c r="D14" s="7">
-        <v>144689</v>
+        <v>551660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>187</v>
+        <v>867</v>
       </c>
       <c r="I14" s="7">
-        <v>131891</v>
+        <v>610002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>392</v>
+        <v>1663</v>
       </c>
       <c r="N14" s="7">
-        <v>276581</v>
+        <v>1161662</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,216 +2771,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>221</v>
+        <v>954</v>
       </c>
       <c r="D15" s="7">
-        <v>156022</v>
+        <v>662891</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>219</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>155093</v>
+        <v>702799</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>440</v>
+        <v>1957</v>
       </c>
       <c r="N15" s="7">
-        <v>311116</v>
+        <v>1365690</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>136</v>
-      </c>
-      <c r="D16" s="7">
-        <v>92797</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>158</v>
-      </c>
-      <c r="I16" s="7">
-        <v>111231</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>294</v>
-      </c>
-      <c r="N16" s="7">
-        <v>204028</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>868</v>
-      </c>
-      <c r="D17" s="7">
-        <v>610643</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="7">
-        <v>796</v>
-      </c>
-      <c r="I17" s="7">
-        <v>551660</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1664</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1162303</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1004</v>
-      </c>
-      <c r="D18" s="7">
-        <v>703440</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>954</v>
-      </c>
-      <c r="I18" s="7">
-        <v>662891</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1958</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1366331</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3134,8 +2837,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4FE56A-9874-4C3F-A8BB-918D0412E7E7}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3420C92C-6749-4D1E-BB09-EBF56D32CC89}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3151,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3252,88 +2955,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5055</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12553</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="N4" s="7">
+        <v>17608</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="D5" s="7">
+        <v>51210</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="I5" s="7">
+        <v>54821</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="N5" s="7">
+        <v>106030</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,147 +3057,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56265</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I6" s="7">
+        <v>67374</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="N6" s="7">
+        <v>123638</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7">
-        <v>12553</v>
+        <v>66095</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>5055</v>
+        <v>59595</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="N7" s="7">
-        <v>17608</v>
+        <v>125690</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="D8" s="7">
-        <v>54821</v>
+        <v>374270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>77</v>
+        <v>577</v>
       </c>
       <c r="I8" s="7">
-        <v>51210</v>
+        <v>404188</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>156</v>
+        <v>1143</v>
       </c>
       <c r="N8" s="7">
-        <v>106030</v>
+        <v>778458</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,153 +3212,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>662</v>
       </c>
       <c r="D9" s="7">
-        <v>67374</v>
+        <v>440365</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>659</v>
       </c>
       <c r="I9" s="7">
-        <v>56265</v>
+        <v>463783</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>181</v>
+        <v>1321</v>
       </c>
       <c r="N9" s="7">
-        <v>123638</v>
+        <v>904148</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>59595</v>
+        <v>17805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>66095</v>
+        <v>18753</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>125690</v>
+        <v>36559</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>577</v>
+        <v>217</v>
       </c>
       <c r="D11" s="7">
-        <v>404188</v>
+        <v>144120</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>29</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>566</v>
+        <v>218</v>
       </c>
       <c r="I11" s="7">
-        <v>374270</v>
+        <v>150985</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>1143</v>
+        <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>778458</v>
+        <v>295104</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,153 +3367,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>659</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>463783</v>
+        <v>161925</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>662</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>440365</v>
+        <v>169738</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1321</v>
+        <v>486</v>
       </c>
       <c r="N12" s="7">
-        <v>904148</v>
+        <v>331663</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7">
-        <v>18753</v>
+        <v>88955</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="7">
+        <v>126</v>
+      </c>
+      <c r="I13" s="7">
+        <v>90901</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>17805</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>254</v>
       </c>
       <c r="N13" s="7">
-        <v>36559</v>
+        <v>179856</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>218</v>
+        <v>860</v>
       </c>
       <c r="D14" s="7">
-        <v>150985</v>
+        <v>569600</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H14" s="7">
+        <v>874</v>
+      </c>
+      <c r="I14" s="7">
+        <v>609994</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H14" s="7">
-        <v>217</v>
-      </c>
-      <c r="I14" s="7">
-        <v>144120</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="M14" s="7">
-        <v>435</v>
+        <v>1734</v>
       </c>
       <c r="N14" s="7">
-        <v>295104</v>
+        <v>1179593</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,216 +3522,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>988</v>
       </c>
       <c r="D15" s="7">
-        <v>169738</v>
+        <v>658555</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>161925</v>
+        <v>700895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>486</v>
+        <v>1988</v>
       </c>
       <c r="N15" s="7">
-        <v>331663</v>
+        <v>1359449</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>126</v>
-      </c>
-      <c r="D16" s="7">
-        <v>90901</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16" s="7">
-        <v>128</v>
-      </c>
-      <c r="I16" s="7">
-        <v>88955</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="7">
-        <v>254</v>
-      </c>
-      <c r="N16" s="7">
-        <v>179856</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>874</v>
-      </c>
-      <c r="D17" s="7">
-        <v>609994</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="7">
-        <v>860</v>
-      </c>
-      <c r="I17" s="7">
-        <v>569599</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1734</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1179593</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D18" s="7">
-        <v>700895</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>988</v>
-      </c>
-      <c r="I18" s="7">
-        <v>658554</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1988</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1359449</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4023,8 +3588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F47E56-2E36-4A1E-BA3D-74FC7442F5D4}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C33255A-FD52-46BA-A1AC-E47E54DECA68}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4040,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4141,96 +3706,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7435</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>4460</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M4" s="7">
         <v>13</v>
       </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11895</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46264</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>55343</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>101607</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,151 +3808,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>59803</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>113502</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D7" s="7">
-        <v>4226</v>
+        <v>83817</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="I7" s="7">
-        <v>6356</v>
+        <v>78881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>161</v>
       </c>
       <c r="N7" s="7">
-        <v>10581</v>
+        <v>162698</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>546</v>
       </c>
       <c r="D8" s="7">
-        <v>52636</v>
+        <v>369600</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>552</v>
       </c>
       <c r="I8" s="7">
-        <v>43798</v>
+        <v>426702</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
-        <v>134</v>
+        <v>1098</v>
       </c>
       <c r="N8" s="7">
-        <v>96435</v>
+        <v>796303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,153 +3963,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>80</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>56862</v>
+        <v>453417</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>631</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>1259</v>
       </c>
       <c r="N9" s="7">
-        <v>107016</v>
+        <v>959001</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>70143</v>
+        <v>21796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>65669</v>
+        <v>22022</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>135812</v>
+        <v>43818</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>552</v>
+        <v>195</v>
       </c>
       <c r="D11" s="7">
-        <v>411496</v>
+        <v>125742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>546</v>
+        <v>210</v>
       </c>
       <c r="I11" s="7">
-        <v>377231</v>
+        <v>160057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>1098</v>
+        <v>405</v>
       </c>
       <c r="N11" s="7">
-        <v>788727</v>
+        <v>285799</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,153 +4118,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>631</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>481639</v>
+        <v>147538</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>235</v>
       </c>
       <c r="I12" s="7">
-        <v>442900</v>
+        <v>182079</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1259</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>924539</v>
+        <v>329617</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>20231</v>
+        <v>113048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="I13" s="7">
-        <v>21799</v>
+        <v>105364</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="M13" s="7">
-        <v>55</v>
+        <v>229</v>
       </c>
       <c r="N13" s="7">
-        <v>42030</v>
+        <v>218412</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>210</v>
+        <v>800</v>
       </c>
       <c r="D14" s="7">
-        <v>153131</v>
+        <v>541606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
-        <v>195</v>
+        <v>837</v>
       </c>
       <c r="I14" s="7">
-        <v>127556</v>
+        <v>642101</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
-        <v>405</v>
+        <v>1637</v>
       </c>
       <c r="N14" s="7">
-        <v>280686</v>
+        <v>1183708</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,216 +4273,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>235</v>
+        <v>920</v>
       </c>
       <c r="D15" s="7">
-        <v>173362</v>
+        <v>654654</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>946</v>
       </c>
       <c r="I15" s="7">
-        <v>149355</v>
+        <v>747465</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>1866</v>
       </c>
       <c r="N15" s="7">
-        <v>322716</v>
+        <v>1402120</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>109</v>
-      </c>
-      <c r="D16" s="7">
-        <v>94600</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="7">
-        <v>120</v>
-      </c>
-      <c r="I16" s="7">
-        <v>93824</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M16" s="7">
-        <v>229</v>
-      </c>
-      <c r="N16" s="7">
-        <v>188424</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>837</v>
-      </c>
-      <c r="D17" s="7">
-        <v>617263</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" s="7">
-        <v>801</v>
-      </c>
-      <c r="I17" s="7">
-        <v>549756</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1638</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1167018</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>946</v>
-      </c>
-      <c r="D18" s="7">
-        <v>711863</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>921</v>
-      </c>
-      <c r="I18" s="7">
-        <v>643580</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1867</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1355442</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
